--- a/2_design/asim/artifacts/testing/analyze-user-item-compare.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-user-item-compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F2ECF3-95B8-4740-A4C6-0E31F70CFA86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C883A7C-AC95-4A0D-834E-D047C83D7A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>CjacMD</t>
-  </si>
-  <si>
     <t>TMJ</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>Speed (item)</t>
+  </si>
+  <si>
+    <t>MMD</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -560,46 +560,46 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <v>0.77039999999999997</v>
@@ -980,7 +980,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1">
         <v>0.78400000000000003</v>
@@ -1450,7 +1450,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1">
         <v>0.83909999999999996</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
         <v>0.77210000000000001</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
         <v>0.77139999999999997</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
         <v>0.78139999999999998</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
         <v>0.77090000000000003</v>
@@ -1873,7 +1873,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="1">
         <v>0.77480000000000004</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1">
         <v>0.77329999999999999</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1">
         <v>0.77449999999999997</v>

--- a/2_design/asim/artifacts/testing/analyze-user-item-compare.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-user-item-compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C883A7C-AC95-4A0D-834E-D047C83D7A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C50510A-B3F9-421E-827A-E965596E6CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
@@ -550,7 +550,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1285,20 +1285,20 @@
       <c r="H16" s="1">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="I16" s="1" t="e">
-        <v>#DIV/0!</v>
+      <c r="I16" s="1">
+        <v>3.09E-2</v>
       </c>
       <c r="J16" s="1">
         <v>0.89559999999999995</v>
       </c>
-      <c r="K16" s="1" t="e">
-        <v>#DIV/0!</v>
+      <c r="K16" s="1">
+        <v>0.89180000000000004</v>
       </c>
       <c r="L16" s="2">
         <v>2.4121E-2</v>
       </c>
-      <c r="M16" s="2" t="e">
-        <v>#DIV/0!</v>
+      <c r="M16" s="2">
+        <v>2.9907E-2</v>
       </c>
       <c r="N16" s="1">
         <v>1.8661000000000001</v>
@@ -1379,20 +1379,20 @@
       <c r="H18" s="1">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="I18" s="1" t="e">
-        <v>#DIV/0!</v>
+      <c r="I18" s="1">
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="J18" s="1">
         <v>0.88690000000000002</v>
       </c>
-      <c r="K18" s="1" t="e">
-        <v>#DIV/0!</v>
+      <c r="K18" s="1">
+        <v>0.89459999999999995</v>
       </c>
       <c r="L18" s="2">
         <v>2.9558999999999998E-2</v>
       </c>
-      <c r="M18" s="2" t="e">
-        <v>#DIV/0!</v>
+      <c r="M18" s="2">
+        <v>3.4145000000000002E-2</v>
       </c>
       <c r="N18" s="1">
         <v>0.32529999999999998</v>

--- a/2_design/asim/artifacts/testing/analyze-user-item-compare.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-user-item-compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C50510A-B3F9-421E-827A-E965596E6CE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F2F268-4762-4E52-B4E4-0F70565BA8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Cosine</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>MMD</t>
+  </si>
+  <si>
+    <t>CjacMD</t>
+  </si>
+  <si>
+    <t>RMSE (user)</t>
+  </si>
+  <si>
+    <t>RMSE (item)</t>
   </si>
 </sst>
 </file>
@@ -235,8 +244,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -547,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F415299B-7611-4776-90FA-43332039FA40}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -558,7 +567,7 @@
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>31</v>
       </c>
@@ -572,37 +581,43 @@
         <v>39</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -619,37 +634,43 @@
         <v>0.93959999999999999</v>
       </c>
       <c r="F2" s="1">
+        <v>0.98150000000000004</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="H2" s="1">
         <v>0.36630000000000001</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>0.371</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>3.49E-2</v>
       </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
         <v>0.90180000000000005</v>
       </c>
-      <c r="K2" s="1">
+      <c r="M2" s="1">
         <v>0.90910000000000002</v>
       </c>
-      <c r="L2" s="2">
+      <c r="N2" s="2">
         <v>3.0550999999999998E-2</v>
       </c>
-      <c r="M2" s="2">
+      <c r="O2" s="2">
         <v>3.3578999999999998E-2</v>
       </c>
-      <c r="N2" s="1">
+      <c r="P2" s="1">
         <v>0.1658</v>
       </c>
-      <c r="O2" s="1">
+      <c r="Q2" s="1">
         <v>0.23230000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -666,37 +687,43 @@
         <v>0.93899999999999995</v>
       </c>
       <c r="F3" s="1">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="H3" s="1">
         <v>0.3553</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>0.37269999999999998</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="L3" s="1">
         <v>0.90800000000000003</v>
       </c>
-      <c r="K3" s="1">
+      <c r="M3" s="1">
         <v>0.91449999999999998</v>
       </c>
-      <c r="L3" s="2">
+      <c r="N3" s="2">
         <v>2.622E-2</v>
       </c>
-      <c r="M3" s="2">
+      <c r="O3" s="2">
         <v>3.0358E-2</v>
       </c>
-      <c r="N3" s="1">
+      <c r="P3" s="1">
         <v>0.1933</v>
       </c>
-      <c r="O3" s="1">
+      <c r="Q3" s="1">
         <v>0.28739999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -713,37 +740,43 @@
         <v>0.99</v>
       </c>
       <c r="F4" s="1">
+        <v>0.99739999999999995</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.995</v>
+      </c>
+      <c r="H4" s="1">
         <v>0.32300000000000001</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>0.35720000000000002</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="L4" s="1">
         <v>0.89649999999999996</v>
       </c>
-      <c r="K4" s="1">
+      <c r="M4" s="1">
         <v>0.89770000000000005</v>
       </c>
-      <c r="L4" s="2">
+      <c r="N4" s="2">
         <v>3.0762999999999999E-2</v>
       </c>
-      <c r="M4" s="2">
+      <c r="O4" s="2">
         <v>3.6692000000000002E-2</v>
       </c>
-      <c r="N4" s="1">
+      <c r="P4" s="1">
         <v>0.1759</v>
       </c>
-      <c r="O4" s="1">
+      <c r="Q4" s="1">
         <v>0.24829999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -760,37 +793,43 @@
         <v>1.077</v>
       </c>
       <c r="F5" s="1">
+        <v>1.0768</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.0378000000000001</v>
+      </c>
+      <c r="H5" s="1">
         <v>7.8399999999999997E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>0.35310000000000002</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="L5" s="1">
         <v>0.90949999999999998</v>
       </c>
-      <c r="K5" s="1">
+      <c r="M5" s="1">
         <v>0.90500000000000003</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <v>2.6557000000000001E-2</v>
       </c>
-      <c r="M5" s="2">
+      <c r="O5" s="2">
         <v>3.3501000000000003E-2</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" s="1">
         <v>0.19040000000000001</v>
       </c>
-      <c r="O5" s="1">
+      <c r="Q5" s="1">
         <v>0.27579999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -807,37 +846,43 @@
         <v>0.92900000000000005</v>
       </c>
       <c r="F6" s="1">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="H6" s="1">
         <v>0.35449999999999998</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>0.37540000000000001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>3.49E-2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
         <v>0.90200000000000002</v>
       </c>
-      <c r="K6" s="1">
+      <c r="M6" s="1">
         <v>0.91090000000000004</v>
       </c>
-      <c r="L6" s="2">
+      <c r="N6" s="2">
         <v>3.0717000000000001E-2</v>
       </c>
-      <c r="M6" s="2">
+      <c r="O6" s="2">
         <v>3.3570999999999997E-2</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <v>0.13969999999999999</v>
       </c>
-      <c r="O6" s="1">
+      <c r="Q6" s="1">
         <v>0.20050000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -854,37 +899,43 @@
         <v>0.9849</v>
       </c>
       <c r="F7" s="1">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.2883</v>
       </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1">
         <v>0.36259999999999998</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
         <v>2.92E-2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>0.9133</v>
       </c>
-      <c r="K7" s="1">
+      <c r="M7" s="1">
         <v>0.90720000000000001</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>2.8327000000000001E-2</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>3.6512999999999997E-2</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>0.1951</v>
       </c>
-      <c r="O7" s="1">
+      <c r="Q7" s="1">
         <v>0.26369999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -901,37 +952,43 @@
         <v>0.98560000000000003</v>
       </c>
       <c r="F8" s="1">
+        <v>0.99590000000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.99280000000000002</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.29139999999999999</v>
       </c>
-      <c r="G8" s="1">
+      <c r="I8" s="1">
         <v>0.37059999999999998</v>
       </c>
-      <c r="H8" s="1">
+      <c r="J8" s="1">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <v>0.91320000000000001</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <v>0.90769999999999995</v>
       </c>
-      <c r="L8" s="2">
+      <c r="N8" s="2">
         <v>2.8597999999999998E-2</v>
       </c>
-      <c r="M8" s="2">
+      <c r="O8" s="2">
         <v>3.6667999999999999E-2</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <v>0.21129999999999999</v>
       </c>
-      <c r="O8" s="1">
+      <c r="Q8" s="1">
         <v>0.31119999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -948,37 +1005,43 @@
         <v>0.9798</v>
       </c>
       <c r="F9" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.9899</v>
+      </c>
+      <c r="H9" s="1">
         <v>0.29449999999999998</v>
       </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
         <v>0.36520000000000002</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
         <v>2.93E-2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="K9" s="1">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>0.91379999999999995</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
         <v>0.90790000000000004</v>
       </c>
-      <c r="L9" s="2">
+      <c r="N9" s="2">
         <v>2.8379000000000001E-2</v>
       </c>
-      <c r="M9" s="2">
+      <c r="O9" s="2">
         <v>3.6545000000000001E-2</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <v>0.2132</v>
       </c>
-      <c r="O9" s="1">
+      <c r="Q9" s="1">
         <v>0.31240000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -995,37 +1058,43 @@
         <v>0.9758</v>
       </c>
       <c r="F10" s="1">
+        <v>0.997</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.98780000000000001</v>
+      </c>
+      <c r="H10" s="1">
         <v>0.27479999999999999</v>
       </c>
-      <c r="G10" s="1">
+      <c r="I10" s="1">
         <v>0.36899999999999999</v>
       </c>
-      <c r="H10" s="1">
+      <c r="J10" s="1">
         <v>2.9499999999999998E-2</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>0.91300000000000003</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
         <v>0.90890000000000004</v>
       </c>
-      <c r="L10" s="2">
+      <c r="N10" s="2">
         <v>2.8566000000000001E-2</v>
       </c>
-      <c r="M10" s="2">
+      <c r="O10" s="2">
         <v>3.6535999999999999E-2</v>
       </c>
-      <c r="N10" s="1">
+      <c r="P10" s="1">
         <v>0.15079999999999999</v>
       </c>
-      <c r="O10" s="1">
+      <c r="Q10" s="1">
         <v>0.19220000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1042,37 +1111,43 @@
         <v>0.93610000000000004</v>
       </c>
       <c r="F11" s="1">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.35589999999999999</v>
       </c>
-      <c r="G11" s="1">
+      <c r="I11" s="1">
         <v>0.37819999999999998</v>
       </c>
-      <c r="H11" s="1">
+      <c r="J11" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="I11" s="1">
+      <c r="K11" s="1">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
         <v>0.90820000000000001</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
         <v>0.91620000000000001</v>
       </c>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <v>2.6189E-2</v>
       </c>
-      <c r="M11" s="2">
+      <c r="O11" s="2">
         <v>3.0214000000000001E-2</v>
       </c>
-      <c r="N11" s="1">
+      <c r="P11" s="1">
         <v>0.2029</v>
       </c>
-      <c r="O11" s="1">
+      <c r="Q11" s="1">
         <v>0.31850000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1089,37 +1164,43 @@
         <v>0.94630000000000003</v>
       </c>
       <c r="F12" s="1">
+        <v>0.9849</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.9728</v>
+      </c>
+      <c r="H12" s="1">
         <v>0.35980000000000001</v>
       </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1">
         <v>0.3664</v>
       </c>
-      <c r="H12" s="1">
+      <c r="J12" s="1">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="I12" s="1">
+      <c r="K12" s="1">
         <v>3.49E-2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <v>0.90180000000000005</v>
       </c>
-      <c r="K12" s="1">
+      <c r="M12" s="1">
         <v>0.9093</v>
       </c>
-      <c r="L12" s="2">
+      <c r="N12" s="2">
         <v>3.0561000000000001E-2</v>
       </c>
-      <c r="M12" s="2">
+      <c r="O12" s="2">
         <v>3.3578999999999998E-2</v>
       </c>
-      <c r="N12" s="1">
+      <c r="P12" s="1">
         <v>0.16189999999999999</v>
       </c>
-      <c r="O12" s="1">
+      <c r="Q12" s="1">
         <v>0.25659999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1136,37 +1217,43 @@
         <v>0.92830000000000001</v>
       </c>
       <c r="F13" s="1">
+        <v>0.98219999999999996</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="H13" s="1">
         <v>0.35980000000000001</v>
       </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1">
         <v>0.38</v>
       </c>
-      <c r="H13" s="1">
+      <c r="J13" s="1">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="K13" s="1">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>0.90200000000000002</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>0.91090000000000004</v>
       </c>
-      <c r="L13" s="2">
+      <c r="N13" s="2">
         <v>3.0717000000000001E-2</v>
       </c>
-      <c r="M13" s="2">
+      <c r="O13" s="2">
         <v>3.3561000000000001E-2</v>
       </c>
-      <c r="N13" s="1">
+      <c r="P13" s="1">
         <v>0.2452</v>
       </c>
-      <c r="O13" s="1">
+      <c r="Q13" s="1">
         <v>0.33950000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1183,37 +1270,43 @@
         <v>1.0416000000000001</v>
       </c>
       <c r="F14" s="1">
+        <v>1.0494000000000001</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.0206</v>
+      </c>
+      <c r="H14" s="1">
         <v>0.17730000000000001</v>
       </c>
-      <c r="G14" s="1">
+      <c r="I14" s="1">
         <v>0.2752</v>
       </c>
-      <c r="H14" s="1">
+      <c r="J14" s="1">
         <v>2.06E-2</v>
       </c>
-      <c r="I14" s="1">
+      <c r="K14" s="1">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>0.40039999999999998</v>
       </c>
-      <c r="K14" s="1">
+      <c r="M14" s="1">
         <v>0.31269999999999998</v>
       </c>
-      <c r="L14" s="2">
+      <c r="N14" s="2">
         <v>1.9562E-2</v>
       </c>
-      <c r="M14" s="2">
+      <c r="O14" s="2">
         <v>3.7491999999999998E-2</v>
       </c>
-      <c r="N14" s="1">
+      <c r="P14" s="1">
         <v>0.12</v>
       </c>
-      <c r="O14" s="1">
+      <c r="Q14" s="1">
         <v>0.15060000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1230,37 +1323,43 @@
         <v>0.9284</v>
       </c>
       <c r="F15" s="1">
+        <v>0.98470000000000002</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="H15" s="1">
         <v>0.35809999999999997</v>
       </c>
-      <c r="G15" s="1">
+      <c r="I15" s="1">
         <v>0.38300000000000001</v>
       </c>
-      <c r="H15" s="1">
+      <c r="J15" s="1">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="I15" s="1">
+      <c r="K15" s="1">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="L15" s="1">
         <v>0.89970000000000006</v>
       </c>
-      <c r="K15" s="1">
+      <c r="M15" s="1">
         <v>0.90939999999999999</v>
       </c>
-      <c r="L15" s="2">
+      <c r="N15" s="2">
         <v>3.0849000000000001E-2</v>
       </c>
-      <c r="M15" s="2">
+      <c r="O15" s="2">
         <v>3.3537999999999998E-2</v>
       </c>
-      <c r="N15" s="1">
+      <c r="P15" s="1">
         <v>0.32879999999999998</v>
       </c>
-      <c r="O15" s="1">
+      <c r="Q15" s="1">
         <v>0.4249</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1277,37 +1376,43 @@
         <v>1.0425</v>
       </c>
       <c r="F16" s="1">
+        <v>1.0327</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.0210999999999999</v>
+      </c>
+      <c r="H16" s="1">
         <v>0.25059999999999999</v>
       </c>
-      <c r="G16" s="1">
+      <c r="I16" s="1">
         <v>0.34310000000000002</v>
       </c>
-      <c r="H16" s="1">
+      <c r="J16" s="1">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="I16" s="1">
+      <c r="K16" s="1">
         <v>3.09E-2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="L16" s="1">
         <v>0.89559999999999995</v>
       </c>
-      <c r="K16" s="1">
+      <c r="M16" s="1">
         <v>0.89180000000000004</v>
       </c>
-      <c r="L16" s="2">
+      <c r="N16" s="2">
         <v>2.4121E-2</v>
       </c>
-      <c r="M16" s="2">
+      <c r="O16" s="2">
         <v>2.9907E-2</v>
       </c>
-      <c r="N16" s="1">
+      <c r="P16" s="1">
         <v>1.8661000000000001</v>
       </c>
-      <c r="O16" s="1">
+      <c r="Q16" s="1">
         <v>1.9016999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -1324,37 +1429,43 @@
         <v>0.95420000000000005</v>
       </c>
       <c r="F17" s="1">
+        <v>0.98529999999999995</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.9768</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.35920000000000002</v>
       </c>
-      <c r="G17" s="1">
+      <c r="I17" s="1">
         <v>0.35909999999999997</v>
       </c>
-      <c r="H17" s="1">
+      <c r="J17" s="1">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="I17" s="1">
+      <c r="K17" s="1">
         <v>3.5200000000000002E-2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="L17" s="1">
         <v>0.90169999999999995</v>
       </c>
-      <c r="K17" s="1">
+      <c r="M17" s="1">
         <v>0.90700000000000003</v>
       </c>
-      <c r="L17" s="2">
+      <c r="N17" s="2">
         <v>3.0550999999999998E-2</v>
       </c>
-      <c r="M17" s="2">
+      <c r="O17" s="2">
         <v>3.3843999999999999E-2</v>
       </c>
-      <c r="N17" s="1">
+      <c r="P17" s="1">
         <v>0.18809999999999999</v>
       </c>
-      <c r="O17" s="1">
+      <c r="Q17" s="1">
         <v>0.21129999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1371,37 +1482,43 @@
         <v>1.0878000000000001</v>
       </c>
       <c r="F18" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="H18" s="1">
         <v>7.9899999999999999E-2</v>
       </c>
-      <c r="G18" s="1">
+      <c r="I18" s="1">
         <v>0.35210000000000002</v>
       </c>
-      <c r="H18" s="1">
+      <c r="J18" s="1">
         <v>3.0599999999999999E-2</v>
       </c>
-      <c r="I18" s="1">
+      <c r="K18" s="1">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="J18" s="1">
+      <c r="L18" s="1">
         <v>0.88690000000000002</v>
       </c>
-      <c r="K18" s="1">
+      <c r="M18" s="1">
         <v>0.89459999999999995</v>
       </c>
-      <c r="L18" s="2">
+      <c r="N18" s="2">
         <v>2.9558999999999998E-2</v>
       </c>
-      <c r="M18" s="2">
+      <c r="O18" s="2">
         <v>3.4145000000000002E-2</v>
       </c>
-      <c r="N18" s="1">
+      <c r="P18" s="1">
         <v>0.32529999999999998</v>
       </c>
-      <c r="O18" s="1">
+      <c r="Q18" s="1">
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1418,37 +1535,43 @@
         <v>0.94359999999999999</v>
       </c>
       <c r="F19" s="1">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.97140000000000004</v>
+      </c>
+      <c r="H19" s="1">
         <v>0.35730000000000001</v>
       </c>
-      <c r="G19" s="1">
+      <c r="I19" s="1">
         <v>0.37369999999999998</v>
       </c>
-      <c r="H19" s="1">
+      <c r="J19" s="1">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="I19" s="1">
+      <c r="K19" s="1">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="J19" s="1">
+      <c r="L19" s="1">
         <v>0.9022</v>
       </c>
-      <c r="K19" s="1">
+      <c r="M19" s="1">
         <v>0.90739999999999998</v>
       </c>
-      <c r="L19" s="2">
+      <c r="N19" s="2">
         <v>3.0904000000000001E-2</v>
       </c>
-      <c r="M19" s="2">
+      <c r="O19" s="2">
         <v>3.3535000000000002E-2</v>
       </c>
-      <c r="N19" s="1">
+      <c r="P19" s="1">
         <v>0.12139999999999999</v>
       </c>
-      <c r="O19" s="1">
+      <c r="Q19" s="1">
         <v>0.14810000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1465,644 +1588,749 @@
         <v>1.1409</v>
       </c>
       <c r="F20" s="1">
+        <v>1.0597000000000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.0681</v>
+      </c>
+      <c r="H20" s="1">
         <v>0.1245</v>
       </c>
-      <c r="G20" s="1">
+      <c r="I20" s="1">
         <v>0.3155</v>
       </c>
-      <c r="H20" s="1">
+      <c r="J20" s="1">
         <v>2.46E-2</v>
       </c>
-      <c r="I20" s="1">
+      <c r="K20" s="1">
         <v>3.04E-2</v>
       </c>
-      <c r="J20" s="1">
+      <c r="L20" s="1">
         <v>0.88549999999999995</v>
       </c>
-      <c r="K20" s="1">
+      <c r="M20" s="1">
         <v>0.89500000000000002</v>
       </c>
-      <c r="L20" s="2">
+      <c r="N20" s="2">
         <v>2.3893000000000001E-2</v>
       </c>
-      <c r="M20" s="2">
+      <c r="O20" s="2">
         <v>2.9443E-2</v>
       </c>
-      <c r="N20" s="1">
+      <c r="P20" s="1">
         <v>0.14330000000000001</v>
       </c>
-      <c r="O20" s="1">
+      <c r="Q20" s="1">
         <v>0.17469999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>0.77210000000000001</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>0.7581</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <v>0.96989999999999998</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>0.9355</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
+        <v>0.98480000000000001</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.96719999999999995</v>
+      </c>
+      <c r="H22" s="1">
         <v>0.35210000000000002</v>
       </c>
-      <c r="G21" s="1">
+      <c r="I22" s="1">
         <v>0.37409999999999999</v>
       </c>
-      <c r="H21" s="1">
+      <c r="J22" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="I21" s="1">
+      <c r="K22" s="1">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="J21" s="1">
+      <c r="L22" s="1">
         <v>0.90820000000000001</v>
       </c>
-      <c r="K21" s="1">
+      <c r="M22" s="1">
         <v>0.9163</v>
       </c>
-      <c r="L21" s="2">
+      <c r="N22" s="2">
         <v>2.6189E-2</v>
       </c>
-      <c r="M21" s="2">
+      <c r="O22" s="2">
         <v>3.0214000000000001E-2</v>
       </c>
-      <c r="N21" s="1">
+      <c r="P22" s="1">
         <v>0.15479999999999999</v>
       </c>
-      <c r="O21" s="1">
+      <c r="Q22" s="1">
         <v>0.19600000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>0.77139999999999997</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>0.75880000000000003</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>0.96840000000000004</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>0.9375</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="H23" s="1">
         <v>0.35570000000000002</v>
       </c>
-      <c r="G22" s="1">
+      <c r="I23" s="1">
         <v>0.37319999999999998</v>
       </c>
-      <c r="H22" s="1">
+      <c r="J23" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="I22" s="1">
+      <c r="K23" s="1">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="J22" s="1">
+      <c r="L23" s="1">
         <v>0.90820000000000001</v>
       </c>
-      <c r="K22" s="1">
+      <c r="M23" s="1">
         <v>0.91469999999999996</v>
       </c>
-      <c r="L22" s="2">
+      <c r="N23" s="2">
         <v>2.622E-2</v>
       </c>
-      <c r="M22" s="2">
+      <c r="O23" s="2">
         <v>3.0327E-2</v>
       </c>
-      <c r="N22" s="1">
+      <c r="P23" s="1">
         <v>0.17829999999999999</v>
       </c>
-      <c r="O22" s="1">
+      <c r="Q23" s="1">
         <v>0.2271</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="1">
         <v>0.78139999999999998</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>0.77749999999999997</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D24" s="1">
         <v>0.98809999999999998</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>0.97230000000000005</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F24" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="H24" s="1">
         <v>0.31030000000000002</v>
       </c>
-      <c r="G23" s="1">
+      <c r="I24" s="1">
         <v>0.35709999999999997</v>
       </c>
-      <c r="H23" s="1">
+      <c r="J24" s="1">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="I23" s="1">
+      <c r="K24" s="1">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J23" s="1">
+      <c r="L24" s="1">
         <v>0.91020000000000001</v>
       </c>
-      <c r="K23" s="1">
+      <c r="M24" s="1">
         <v>0.90859999999999996</v>
       </c>
-      <c r="L23" s="2">
+      <c r="N24" s="2">
         <v>2.8979999999999999E-2</v>
       </c>
-      <c r="M23" s="2">
+      <c r="O24" s="2">
         <v>3.6505000000000003E-2</v>
       </c>
-      <c r="N23" s="1">
+      <c r="P24" s="1">
         <v>0.1789</v>
       </c>
-      <c r="O23" s="1">
+      <c r="Q24" s="1">
         <v>0.23019999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>0.77290000000000003</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>0.76259999999999994</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <v>0.96870000000000001</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <v>0.94340000000000002</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F25" s="1">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="H25" s="1">
         <v>0.36159999999999998</v>
       </c>
-      <c r="G24" s="1">
+      <c r="I25" s="1">
         <v>0.3679</v>
       </c>
-      <c r="H24" s="1">
+      <c r="J25" s="1">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="I24" s="1">
+      <c r="K25" s="1">
         <v>3.49E-2</v>
       </c>
-      <c r="J24" s="1">
+      <c r="L25" s="1">
         <v>0.90139999999999998</v>
       </c>
-      <c r="K24" s="1">
+      <c r="M25" s="1">
         <v>0.90939999999999999</v>
       </c>
-      <c r="L24" s="2">
+      <c r="N25" s="2">
         <v>3.0602000000000001E-2</v>
       </c>
-      <c r="M24" s="2">
+      <c r="O25" s="2">
         <v>3.3578999999999998E-2</v>
       </c>
-      <c r="N24" s="1">
+      <c r="P25" s="1">
         <v>0.26700000000000002</v>
       </c>
-      <c r="O24" s="1">
+      <c r="Q25" s="1">
         <v>0.20880000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>0.76990000000000003</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>0.75439999999999996</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>0.9637</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <v>0.92600000000000005</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F26" s="1">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="H26" s="1">
         <v>0.3614</v>
       </c>
-      <c r="G25" s="1">
+      <c r="I26" s="1">
         <v>0.38159999999999999</v>
       </c>
-      <c r="H25" s="1">
+      <c r="J26" s="1">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="I25" s="1">
+      <c r="K26" s="1">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="J25" s="1">
+      <c r="L26" s="1">
         <v>0.90149999999999997</v>
       </c>
-      <c r="K25" s="1">
+      <c r="M26" s="1">
         <v>0.91100000000000003</v>
       </c>
-      <c r="L25" s="2">
+      <c r="N26" s="2">
         <v>3.0768E-2</v>
       </c>
-      <c r="M25" s="2">
+      <c r="O26" s="2">
         <v>3.3550000000000003E-2</v>
       </c>
-      <c r="N25" s="1">
+      <c r="P26" s="1">
         <v>0.34110000000000001</v>
       </c>
-      <c r="O25" s="1">
+      <c r="Q26" s="1">
         <v>0.29970000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B27" s="1">
         <v>0.77890000000000004</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <v>0.76639999999999997</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D27" s="1">
         <v>0.98629999999999995</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>0.95840000000000003</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F27" s="1">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="H27" s="1">
         <v>0.3518</v>
       </c>
-      <c r="G26" s="1">
+      <c r="I27" s="1">
         <v>0.35699999999999998</v>
       </c>
-      <c r="H26" s="1">
+      <c r="J27" s="1">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="I26" s="1">
+      <c r="K27" s="1">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="J26" s="1">
+      <c r="L27" s="1">
         <v>0.89370000000000005</v>
       </c>
-      <c r="K26" s="1">
+      <c r="M27" s="1">
         <v>0.89359999999999995</v>
       </c>
-      <c r="L26" s="2">
+      <c r="N27" s="2">
         <v>3.0551999999999999E-2</v>
       </c>
-      <c r="M26" s="2">
+      <c r="O27" s="2">
         <v>3.6582999999999997E-2</v>
       </c>
-      <c r="N26" s="1">
+      <c r="P27" s="1">
         <v>0.223</v>
       </c>
-      <c r="O26" s="1">
+      <c r="Q27" s="1">
         <v>0.1996</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B28" s="1">
         <v>0.7722</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <v>0.75370000000000004</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D28" s="1">
         <v>0.97189999999999999</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>0.9294</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F28" s="1">
+        <v>0.9859</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.96409999999999996</v>
+      </c>
+      <c r="H28" s="1">
         <v>0.35709999999999997</v>
       </c>
-      <c r="G27" s="1">
+      <c r="I28" s="1">
         <v>0.37909999999999999</v>
       </c>
-      <c r="H27" s="1">
+      <c r="J28" s="1">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="I27" s="1">
+      <c r="K28" s="1">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="J27" s="1">
+      <c r="L28" s="1">
         <v>0.89319999999999999</v>
       </c>
-      <c r="K27" s="1">
+      <c r="M28" s="1">
         <v>0.89429999999999998</v>
       </c>
-      <c r="L27" s="2">
+      <c r="N28" s="2">
         <v>3.0769000000000001E-2</v>
       </c>
-      <c r="M27" s="2">
+      <c r="O28" s="2">
         <v>3.6583999999999998E-2</v>
       </c>
-      <c r="N27" s="1">
+      <c r="P28" s="1">
         <v>0.31419999999999998</v>
       </c>
-      <c r="O27" s="1">
+      <c r="Q28" s="1">
         <v>0.30009999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B29" s="1">
         <v>0.77090000000000003</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="1">
         <v>0.76119999999999999</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D29" s="1">
         <v>0.96179999999999999</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="1">
         <v>0.93640000000000001</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F29" s="1">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.9677</v>
+      </c>
+      <c r="H29" s="1">
         <v>0.36859999999999998</v>
       </c>
-      <c r="G28" s="1">
+      <c r="I29" s="1">
         <v>0.37369999999999998</v>
       </c>
-      <c r="H28" s="1">
+      <c r="J29" s="1">
         <v>2.7400000000000001E-2</v>
       </c>
-      <c r="I28" s="1">
+      <c r="K29" s="1">
         <v>3.0700000000000002E-2</v>
       </c>
-      <c r="J28" s="1">
+      <c r="L29" s="1">
         <v>0.91049999999999998</v>
       </c>
-      <c r="K28" s="1">
+      <c r="M29" s="1">
         <v>0.91879999999999995</v>
       </c>
-      <c r="L28" s="2">
+      <c r="N29" s="2">
         <v>2.6578999999999998E-2</v>
       </c>
-      <c r="M28" s="2">
+      <c r="O29" s="2">
         <v>2.9687000000000002E-2</v>
       </c>
-      <c r="N28" s="1">
+      <c r="P29" s="1">
         <v>0.31159999999999999</v>
       </c>
-      <c r="O28" s="1">
+      <c r="Q29" s="1">
         <v>0.4229</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B30" s="1">
         <v>0.77480000000000004</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <v>0.76549999999999996</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D30" s="1">
         <v>0.97799999999999998</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E30" s="1">
         <v>0.95269999999999999</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F30" s="1">
+        <v>0.9889</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="H30" s="1">
         <v>0.35310000000000002</v>
       </c>
-      <c r="G29" s="1">
+      <c r="I30" s="1">
         <v>0.37009999999999998</v>
       </c>
-      <c r="H29" s="1">
+      <c r="J30" s="1">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="I29" s="1">
+      <c r="K30" s="1">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="J29" s="1">
+      <c r="L30" s="1">
         <v>0.90800000000000003</v>
       </c>
-      <c r="K29" s="1">
+      <c r="M30" s="1">
         <v>0.91369999999999996</v>
       </c>
-      <c r="L29" s="2">
+      <c r="N30" s="2">
         <v>2.6053E-2</v>
       </c>
-      <c r="M29" s="2">
+      <c r="O30" s="2">
         <v>3.0034999999999999E-2</v>
       </c>
-      <c r="N29" s="1">
+      <c r="P30" s="1">
         <v>0.32450000000000001</v>
       </c>
-      <c r="O29" s="1">
+      <c r="Q30" s="1">
         <v>0.38019999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1">
         <v>0.77329999999999999</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>0.75819999999999999</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D31" s="1">
         <v>0.97540000000000004</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E31" s="1">
         <v>0.93759999999999999</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F31" s="1">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.96830000000000005</v>
+      </c>
+      <c r="H31" s="1">
         <v>0.34799999999999998</v>
       </c>
-      <c r="G30" s="1">
+      <c r="I31" s="1">
         <v>0.37530000000000002</v>
       </c>
-      <c r="H30" s="1">
+      <c r="J31" s="1">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="I30" s="1">
+      <c r="K31" s="1">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="J30" s="1">
+      <c r="L31" s="1">
         <v>0.90669999999999995</v>
       </c>
-      <c r="K30" s="1">
+      <c r="M31" s="1">
         <v>0.91379999999999995</v>
       </c>
-      <c r="L30" s="2">
+      <c r="N31" s="2">
         <v>2.6282E-2</v>
       </c>
-      <c r="M30" s="2">
+      <c r="O31" s="2">
         <v>3.0283999999999998E-2</v>
       </c>
-      <c r="N30" s="1">
+      <c r="P31" s="1">
         <v>0.27339999999999998</v>
       </c>
-      <c r="O30" s="1">
+      <c r="Q31" s="1">
         <v>0.33850000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B32" s="1">
         <v>0.77659999999999996</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="1">
         <v>0.76070000000000004</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32" s="1">
         <v>0.98680000000000001</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E32" s="1">
         <v>0.94650000000000001</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F32" s="1">
+        <v>0.99339999999999995</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="H32" s="1">
         <v>0.34200000000000003</v>
       </c>
-      <c r="G31" s="1">
+      <c r="I32" s="1">
         <v>0.37380000000000002</v>
       </c>
-      <c r="H31" s="1">
+      <c r="J32" s="1">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="I31" s="1">
+      <c r="K32" s="1">
         <v>3.1399999999999997E-2</v>
       </c>
-      <c r="J31" s="1">
+      <c r="L32" s="1">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K31" s="1">
+      <c r="M32" s="1">
         <v>0.90969999999999995</v>
       </c>
-      <c r="L31" s="2">
+      <c r="N32" s="2">
         <v>2.6301000000000001E-2</v>
       </c>
-      <c r="M31" s="2">
+      <c r="O32" s="2">
         <v>3.0321000000000001E-2</v>
       </c>
-      <c r="N31" s="1">
+      <c r="P32" s="1">
         <v>0.2213</v>
       </c>
-      <c r="O31" s="1">
+      <c r="Q32" s="1">
         <v>0.2802</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B33" s="1">
         <v>0.78149999999999997</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <v>0.76149999999999995</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D33" s="1">
         <v>1.002</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E33" s="1">
         <v>0.95399999999999996</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F33" s="1">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="H33" s="1">
         <v>0.32969999999999999</v>
       </c>
-      <c r="G32" s="1">
+      <c r="I33" s="1">
         <v>0.37240000000000001</v>
       </c>
-      <c r="H32" s="1">
+      <c r="J33" s="1">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="I32" s="1">
+      <c r="K33" s="1">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="J32" s="1">
+      <c r="L33" s="1">
         <v>0.90039999999999998</v>
       </c>
-      <c r="K32" s="1">
+      <c r="M33" s="1">
         <v>0.90700000000000003</v>
       </c>
-      <c r="L32" s="2">
+      <c r="N33" s="2">
         <v>2.6318999999999999E-2</v>
       </c>
-      <c r="M32" s="2">
+      <c r="O33" s="2">
         <v>3.0172999999999998E-2</v>
       </c>
-      <c r="N32" s="1">
+      <c r="P33" s="1">
         <v>0.20649999999999999</v>
       </c>
-      <c r="O32" s="1">
+      <c r="Q33" s="1">
         <v>0.2913</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B34" s="1">
         <v>0.77449999999999997</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <v>0.75570000000000004</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>0.97840000000000005</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E34" s="1">
         <v>0.93440000000000001</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F34" s="1">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="H34" s="1">
         <v>0.34260000000000002</v>
       </c>
-      <c r="G33" s="1">
+      <c r="I34" s="1">
         <v>0.37769999999999998</v>
       </c>
-      <c r="H33" s="1">
+      <c r="J34" s="1">
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="I33" s="1">
+      <c r="K34" s="1">
         <v>3.1199999999999999E-2</v>
       </c>
-      <c r="J33" s="1">
+      <c r="L34" s="1">
         <v>0.90500000000000003</v>
       </c>
-      <c r="K33" s="1">
+      <c r="M34" s="1">
         <v>0.91369999999999996</v>
       </c>
-      <c r="L33" s="2">
+      <c r="N34" s="2">
         <v>2.6322999999999999E-2</v>
       </c>
-      <c r="M33" s="2">
+      <c r="O34" s="2">
         <v>3.0190999999999999E-2</v>
       </c>
-      <c r="N33" s="1">
+      <c r="P34" s="1">
         <v>0.15720000000000001</v>
       </c>
-      <c r="O33" s="1">
+      <c r="Q34" s="1">
         <v>0.25219999999999998</v>
       </c>
     </row>

--- a/2_design/asim/artifacts/testing/analyze-user-item-compare.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-user-item-compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F2F268-4762-4E52-B4E4-0F70565BA8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D36668D-8BFC-4CCD-B0C5-27E3F96CEB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
@@ -559,7 +559,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1628,22 +1628,54 @@
       <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="B21" s="1">
+        <v>0.83089999999999997</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.1067</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.1144000000000001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.052</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.0557000000000001</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.16789999999999999</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="N21" s="2">
+        <v>2.8001000000000002E-2</v>
+      </c>
+      <c r="O21" s="2">
+        <v>3.3182999999999997E-2</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.17380000000000001</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.22109999999999999</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">

--- a/2_design/asim/artifacts/testing/analyze-user-item-compare.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-user-item-compare.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D36668D-8BFC-4CCD-B0C5-27E3F96CEB57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958CBF99-0427-4392-A2CF-3F8CF347C3AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Cosine</t>
   </si>
@@ -180,6 +180,48 @@
   </si>
   <si>
     <t>RMSE (item)</t>
+  </si>
+  <si>
+    <t>PSS</t>
+  </si>
+  <si>
+    <t>IJ</t>
+  </si>
+  <si>
+    <t>CosineSMD</t>
+  </si>
+  <si>
+    <t>CosineIJ</t>
+  </si>
+  <si>
+    <t>PearsonSMD</t>
+  </si>
+  <si>
+    <t>PearsonIJ</t>
+  </si>
+  <si>
+    <t>PIPJ</t>
+  </si>
+  <si>
+    <t>PIPSMD</t>
+  </si>
+  <si>
+    <t>PIPIJ</t>
+  </si>
+  <si>
+    <t>PSSJ</t>
+  </si>
+  <si>
+    <t>PSSSMD</t>
+  </si>
+  <si>
+    <t>PSSIJ</t>
+  </si>
+  <si>
+    <t>TASMD</t>
+  </si>
+  <si>
+    <t>TAIJ</t>
   </si>
 </sst>
 </file>
@@ -556,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F415299B-7611-4776-90FA-43332039FA40}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -884,1485 +926,1805 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.78449999999999998</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.78459999999999996</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.99050000000000005</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.9849</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.99519999999999997</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.99239999999999995</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.2883</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.36259999999999998</v>
-      </c>
-      <c r="J7" s="1">
-        <v>2.92E-2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.9133</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0.90720000000000001</v>
-      </c>
-      <c r="N7" s="2">
-        <v>2.8327000000000001E-2</v>
-      </c>
-      <c r="O7" s="2">
-        <v>3.6512999999999997E-2</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.1951</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.26369999999999999</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.78169999999999995</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.78129999999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.9919</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.98560000000000003</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.99590000000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.99280000000000002</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.29139999999999999</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.37059999999999998</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2.9499999999999998E-2</v>
-      </c>
-      <c r="K8" s="1">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.91320000000000001</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0.90769999999999995</v>
-      </c>
-      <c r="N8" s="2">
-        <v>2.8597999999999998E-2</v>
-      </c>
-      <c r="O8" s="2">
-        <v>3.6667999999999999E-2</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0.21129999999999999</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0.31119999999999998</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.78259999999999996</v>
+        <v>0.78449999999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>0.78239999999999998</v>
+        <v>0.78459999999999996</v>
       </c>
       <c r="D9" s="1">
-        <v>0.98609999999999998</v>
+        <v>0.99050000000000005</v>
       </c>
       <c r="E9" s="1">
-        <v>0.9798</v>
+        <v>0.9849</v>
       </c>
       <c r="F9" s="1">
-        <v>0.99299999999999999</v>
+        <v>0.99519999999999997</v>
       </c>
       <c r="G9" s="1">
-        <v>0.9899</v>
+        <v>0.99239999999999995</v>
       </c>
       <c r="H9" s="1">
-        <v>0.29449999999999998</v>
+        <v>0.2883</v>
       </c>
       <c r="I9" s="1">
-        <v>0.36520000000000002</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>2.93E-2</v>
+        <v>2.92E-2</v>
       </c>
       <c r="K9" s="1">
-        <v>3.8100000000000002E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="L9" s="1">
-        <v>0.91379999999999995</v>
+        <v>0.9133</v>
       </c>
       <c r="M9" s="1">
-        <v>0.90790000000000004</v>
+        <v>0.90720000000000001</v>
       </c>
       <c r="N9" s="2">
-        <v>2.8379000000000001E-2</v>
+        <v>2.8327000000000001E-2</v>
       </c>
       <c r="O9" s="2">
-        <v>3.6545000000000001E-2</v>
+        <v>3.6512999999999997E-2</v>
       </c>
       <c r="P9" s="1">
-        <v>0.2132</v>
+        <v>0.1951</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.31240000000000001</v>
+        <v>0.26369999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>0.78400000000000003</v>
+        <v>0.78169999999999995</v>
       </c>
       <c r="C10" s="1">
-        <v>0.77780000000000005</v>
+        <v>0.78129999999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>0.99399999999999999</v>
+        <v>0.9919</v>
       </c>
       <c r="E10" s="1">
-        <v>0.9758</v>
+        <v>0.98560000000000003</v>
       </c>
       <c r="F10" s="1">
-        <v>0.997</v>
+        <v>0.99590000000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>0.98780000000000001</v>
+        <v>0.99280000000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>0.27479999999999999</v>
+        <v>0.29139999999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>0.36899999999999999</v>
+        <v>0.37059999999999998</v>
       </c>
       <c r="J10" s="1">
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="K10" s="1">
-        <v>3.8100000000000002E-2</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="L10" s="1">
-        <v>0.91300000000000003</v>
+        <v>0.91320000000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>0.90890000000000004</v>
+        <v>0.90769999999999995</v>
       </c>
       <c r="N10" s="2">
-        <v>2.8566000000000001E-2</v>
+        <v>2.8597999999999998E-2</v>
       </c>
       <c r="O10" s="2">
-        <v>3.6535999999999999E-2</v>
+        <v>3.6667999999999999E-2</v>
       </c>
       <c r="P10" s="1">
-        <v>0.15079999999999999</v>
+        <v>0.21129999999999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.19220000000000001</v>
+        <v>0.31119999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>0.77229999999999999</v>
+        <v>0.78259999999999996</v>
       </c>
       <c r="C11" s="1">
-        <v>0.75839999999999996</v>
+        <v>0.78239999999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>0.97060000000000002</v>
+        <v>0.98609999999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.93610000000000004</v>
+        <v>0.9798</v>
       </c>
       <c r="F11" s="1">
-        <v>0.98519999999999996</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>0.96750000000000003</v>
+        <v>0.9899</v>
       </c>
       <c r="H11" s="1">
-        <v>0.35589999999999999</v>
+        <v>0.29449999999999998</v>
       </c>
       <c r="I11" s="1">
-        <v>0.37819999999999998</v>
+        <v>0.36520000000000002</v>
       </c>
       <c r="J11" s="1">
-        <v>2.7E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="K11" s="1">
-        <v>3.1199999999999999E-2</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="L11" s="1">
-        <v>0.90820000000000001</v>
+        <v>0.91379999999999995</v>
       </c>
       <c r="M11" s="1">
-        <v>0.91620000000000001</v>
+        <v>0.90790000000000004</v>
       </c>
       <c r="N11" s="2">
-        <v>2.6189E-2</v>
+        <v>2.8379000000000001E-2</v>
       </c>
       <c r="O11" s="2">
-        <v>3.0214000000000001E-2</v>
+        <v>3.6545000000000001E-2</v>
       </c>
       <c r="P11" s="1">
-        <v>0.2029</v>
+        <v>0.2132</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.31850000000000001</v>
+        <v>0.31240000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B12" s="1">
-        <v>0.77339999999999998</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>0.76390000000000002</v>
+        <v>0.77780000000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>0.97</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.94630000000000003</v>
+        <v>0.9758</v>
       </c>
       <c r="F12" s="1">
-        <v>0.9849</v>
+        <v>0.997</v>
       </c>
       <c r="G12" s="1">
-        <v>0.9728</v>
+        <v>0.98780000000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>0.35980000000000001</v>
+        <v>0.27479999999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>0.3664</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>3.1600000000000003E-2</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="K12" s="1">
-        <v>3.49E-2</v>
+        <v>3.8100000000000002E-2</v>
       </c>
       <c r="L12" s="1">
-        <v>0.90180000000000005</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="M12" s="1">
-        <v>0.9093</v>
+        <v>0.90890000000000004</v>
       </c>
       <c r="N12" s="2">
-        <v>3.0561000000000001E-2</v>
+        <v>2.8566000000000001E-2</v>
       </c>
       <c r="O12" s="2">
-        <v>3.3578999999999998E-2</v>
+        <v>3.6535999999999999E-2</v>
       </c>
       <c r="P12" s="1">
-        <v>0.16189999999999999</v>
+        <v>0.15079999999999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.25659999999999999</v>
+        <v>0.19220000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.77029999999999998</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.75549999999999995</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.9647</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.92830000000000001</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.98219999999999996</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.96350000000000002</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.35980000000000001</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="J13" s="1">
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="K13" s="1">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.91090000000000004</v>
-      </c>
-      <c r="N13" s="2">
-        <v>3.0717000000000001E-2</v>
-      </c>
-      <c r="O13" s="2">
-        <v>3.3561000000000001E-2</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0.2452</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>0.33950000000000002</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.81689999999999996</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.79579999999999995</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.1012999999999999</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1.0416000000000001</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1.0494000000000001</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1.0206</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.17730000000000001</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.2752</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2.06E-2</v>
-      </c>
-      <c r="K14" s="1">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.40039999999999998</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.31269999999999998</v>
-      </c>
-      <c r="N14" s="2">
-        <v>1.9562E-2</v>
-      </c>
-      <c r="O14" s="2">
-        <v>3.7491999999999998E-2</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0.15060000000000001</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1">
-        <v>0.7712</v>
+        <v>0.77229999999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>0.75380000000000003</v>
+        <v>0.75839999999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>0.96950000000000003</v>
+        <v>0.97060000000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.9284</v>
+        <v>0.93610000000000004</v>
       </c>
       <c r="F15" s="1">
-        <v>0.98470000000000002</v>
+        <v>0.98519999999999996</v>
       </c>
       <c r="G15" s="1">
-        <v>0.96350000000000002</v>
+        <v>0.96750000000000003</v>
       </c>
       <c r="H15" s="1">
-        <v>0.35809999999999997</v>
+        <v>0.35589999999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>0.38300000000000001</v>
+        <v>0.37819999999999998</v>
       </c>
       <c r="J15" s="1">
-        <v>3.1899999999999998E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="K15" s="1">
-        <v>3.4799999999999998E-2</v>
+        <v>3.1199999999999999E-2</v>
       </c>
       <c r="L15" s="1">
-        <v>0.89970000000000006</v>
+        <v>0.90820000000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>0.90939999999999999</v>
+        <v>0.91620000000000001</v>
       </c>
       <c r="N15" s="2">
-        <v>3.0849000000000001E-2</v>
+        <v>2.6189E-2</v>
       </c>
       <c r="O15" s="2">
-        <v>3.3537999999999998E-2</v>
+        <v>3.0214000000000001E-2</v>
       </c>
       <c r="P15" s="1">
-        <v>0.32879999999999998</v>
+        <v>0.2029</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.4249</v>
+        <v>0.31850000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.81469999999999998</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.80089999999999995</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1.0665</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1.0425</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1.0327</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1.0210999999999999</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.25059999999999999</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.34310000000000002</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="K16" s="1">
-        <v>3.09E-2</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.89559999999999995</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.89180000000000004</v>
-      </c>
-      <c r="N16" s="2">
-        <v>2.4121E-2</v>
-      </c>
-      <c r="O16" s="2">
-        <v>2.9907E-2</v>
-      </c>
-      <c r="P16" s="1">
-        <v>1.8661000000000001</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>1.9016999999999999</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1">
-        <v>0.77370000000000005</v>
+        <v>0.77339999999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>0.76700000000000002</v>
+        <v>0.76390000000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>0.97070000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="E17" s="1">
-        <v>0.95420000000000005</v>
+        <v>0.94630000000000003</v>
       </c>
       <c r="F17" s="1">
-        <v>0.98529999999999995</v>
+        <v>0.9849</v>
       </c>
       <c r="G17" s="1">
-        <v>0.9768</v>
+        <v>0.9728</v>
       </c>
       <c r="H17" s="1">
-        <v>0.35920000000000002</v>
+        <v>0.35980000000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>0.35909999999999997</v>
+        <v>0.3664</v>
       </c>
       <c r="J17" s="1">
         <v>3.1600000000000003E-2</v>
       </c>
       <c r="K17" s="1">
-        <v>3.5200000000000002E-2</v>
+        <v>3.49E-2</v>
       </c>
       <c r="L17" s="1">
-        <v>0.90169999999999995</v>
+        <v>0.90180000000000005</v>
       </c>
       <c r="M17" s="1">
-        <v>0.90700000000000003</v>
+        <v>0.9093</v>
       </c>
       <c r="N17" s="2">
-        <v>3.0550999999999998E-2</v>
+        <v>3.0561000000000001E-2</v>
       </c>
       <c r="O17" s="2">
-        <v>3.3843999999999999E-2</v>
+        <v>3.3578999999999998E-2</v>
       </c>
       <c r="P17" s="1">
-        <v>0.18809999999999999</v>
+        <v>0.16189999999999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.21129999999999999</v>
+        <v>0.25659999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1">
-        <v>0.85580000000000001</v>
+        <v>0.77029999999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>0.82320000000000004</v>
+        <v>0.75549999999999995</v>
       </c>
       <c r="D18" s="1">
-        <v>1.1664000000000001</v>
+        <v>0.9647</v>
       </c>
       <c r="E18" s="1">
-        <v>1.0878000000000001</v>
+        <v>0.92830000000000001</v>
       </c>
       <c r="F18" s="1">
-        <v>1.08</v>
+        <v>0.98219999999999996</v>
       </c>
       <c r="G18" s="1">
-        <v>1.0429999999999999</v>
+        <v>0.96350000000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>7.9899999999999999E-2</v>
+        <v>0.35980000000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>0.35210000000000002</v>
+        <v>0.38</v>
       </c>
       <c r="J18" s="1">
-        <v>3.0599999999999999E-2</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="K18" s="1">
-        <v>3.5499999999999997E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="L18" s="1">
-        <v>0.88690000000000002</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>0.89459999999999995</v>
+        <v>0.91090000000000004</v>
       </c>
       <c r="N18" s="2">
-        <v>2.9558999999999998E-2</v>
+        <v>3.0717000000000001E-2</v>
       </c>
       <c r="O18" s="2">
-        <v>3.4145000000000002E-2</v>
+        <v>3.3561000000000001E-2</v>
       </c>
       <c r="P18" s="1">
-        <v>0.32529999999999998</v>
+        <v>0.2452</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.32600000000000001</v>
+        <v>0.33950000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>0.77170000000000005</v>
+        <v>0.81689999999999996</v>
       </c>
       <c r="C19" s="1">
-        <v>0.76100000000000001</v>
+        <v>0.79579999999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>0.97409999999999997</v>
+        <v>1.1012999999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.94359999999999999</v>
+        <v>1.0416000000000001</v>
       </c>
       <c r="F19" s="1">
-        <v>0.98699999999999999</v>
+        <v>1.0494000000000001</v>
       </c>
       <c r="G19" s="1">
-        <v>0.97140000000000004</v>
+        <v>1.0206</v>
       </c>
       <c r="H19" s="1">
-        <v>0.35730000000000001</v>
+        <v>0.17730000000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>0.37369999999999998</v>
+        <v>0.2752</v>
       </c>
       <c r="J19" s="1">
-        <v>3.2000000000000001E-2</v>
+        <v>2.06E-2</v>
       </c>
       <c r="K19" s="1">
-        <v>3.4799999999999998E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="L19" s="1">
-        <v>0.9022</v>
+        <v>0.40039999999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>0.90739999999999998</v>
+        <v>0.31269999999999998</v>
       </c>
       <c r="N19" s="2">
-        <v>3.0904000000000001E-2</v>
+        <v>1.9562E-2</v>
       </c>
       <c r="O19" s="2">
-        <v>3.3535000000000002E-2</v>
+        <v>3.7491999999999998E-2</v>
       </c>
       <c r="P19" s="1">
-        <v>0.12139999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.14810000000000001</v>
+        <v>0.15060000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1">
-        <v>0.83909999999999996</v>
+        <v>0.77059999999999995</v>
       </c>
       <c r="C20" s="1">
-        <v>0.83809999999999996</v>
+        <v>0.7611</v>
       </c>
       <c r="D20" s="1">
-        <v>1.1229</v>
+        <v>0.96870000000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>1.1409</v>
+        <v>0.94179999999999997</v>
       </c>
       <c r="F20" s="1">
-        <v>1.0597000000000001</v>
+        <v>0.98419999999999996</v>
       </c>
       <c r="G20" s="1">
-        <v>1.0681</v>
+        <v>0.97050000000000003</v>
       </c>
       <c r="H20" s="1">
-        <v>0.1245</v>
+        <v>0.36409999999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>0.3155</v>
+        <v>0.37780000000000002</v>
       </c>
       <c r="J20" s="1">
-        <v>2.46E-2</v>
-      </c>
-      <c r="K20" s="1">
-        <v>3.04E-2</v>
-      </c>
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="K20" s="1"/>
       <c r="L20" s="1">
-        <v>0.88549999999999995</v>
-      </c>
-      <c r="M20" s="1">
-        <v>0.89500000000000002</v>
-      </c>
+        <v>0.90059999999999996</v>
+      </c>
+      <c r="M20" s="1"/>
       <c r="N20" s="2">
-        <v>2.3893000000000001E-2</v>
-      </c>
-      <c r="O20" s="2">
-        <v>2.9443E-2</v>
-      </c>
+        <v>3.0818999999999999E-2</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" s="1">
-        <v>0.14330000000000001</v>
+        <v>0.16889999999999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.17469999999999999</v>
+        <v>0.2422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0.83089999999999997</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.1067</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1.1144000000000001</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1.052</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1.0557000000000001</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.16789999999999999</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.31619999999999998</v>
-      </c>
-      <c r="J21" s="1">
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="K21" s="1">
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.87960000000000005</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="N21" s="2">
-        <v>2.8001000000000002E-2</v>
-      </c>
-      <c r="O21" s="2">
-        <v>3.3182999999999997E-2</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0.17380000000000001</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>0.22109999999999999</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0.77210000000000001</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.7581</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.96989999999999998</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.9355</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0.98480000000000001</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.96719999999999995</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.35210000000000002</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.37409999999999999</v>
-      </c>
-      <c r="J22" s="1">
-        <v>2.7E-2</v>
-      </c>
-      <c r="K22" s="1">
-        <v>3.1199999999999999E-2</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.90820000000000001</v>
-      </c>
-      <c r="M22" s="1">
-        <v>0.9163</v>
-      </c>
-      <c r="N22" s="2">
-        <v>2.6189E-2</v>
-      </c>
-      <c r="O22" s="2">
-        <v>3.0214000000000001E-2</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0.15479999999999999</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0.19600000000000001</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0.77139999999999997</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.75880000000000003</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.96840000000000004</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.9375</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0.98409999999999997</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.96819999999999995</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.35570000000000002</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.37319999999999998</v>
-      </c>
-      <c r="J23" s="1">
-        <v>2.7E-2</v>
-      </c>
-      <c r="K23" s="1">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.90820000000000001</v>
-      </c>
-      <c r="M23" s="1">
-        <v>0.91469999999999996</v>
-      </c>
-      <c r="N23" s="2">
-        <v>2.622E-2</v>
-      </c>
-      <c r="O23" s="2">
-        <v>3.0327E-2</v>
-      </c>
-      <c r="P23" s="1">
-        <v>0.17829999999999999</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>0.2271</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1">
-        <v>0.78139999999999998</v>
+        <v>0.7712</v>
       </c>
       <c r="C24" s="1">
-        <v>0.77749999999999997</v>
+        <v>0.75380000000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>0.98809999999999998</v>
+        <v>0.96950000000000003</v>
       </c>
       <c r="E24" s="1">
-        <v>0.97230000000000005</v>
+        <v>0.9284</v>
       </c>
       <c r="F24" s="1">
-        <v>0.99399999999999999</v>
+        <v>0.98470000000000002</v>
       </c>
       <c r="G24" s="1">
-        <v>0.98599999999999999</v>
+        <v>0.96350000000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>0.31030000000000002</v>
+        <v>0.35809999999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>0.35709999999999997</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>2.9899999999999999E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="K24" s="1">
-        <v>3.7999999999999999E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="L24" s="1">
-        <v>0.91020000000000001</v>
+        <v>0.89970000000000006</v>
       </c>
       <c r="M24" s="1">
-        <v>0.90859999999999996</v>
+        <v>0.90939999999999999</v>
       </c>
       <c r="N24" s="2">
-        <v>2.8979999999999999E-2</v>
+        <v>3.0849000000000001E-2</v>
       </c>
       <c r="O24" s="2">
-        <v>3.6505000000000003E-2</v>
+        <v>3.3537999999999998E-2</v>
       </c>
       <c r="P24" s="1">
-        <v>0.1789</v>
+        <v>0.32879999999999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.23019999999999999</v>
+        <v>0.4249</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1">
-        <v>0.77290000000000003</v>
+        <v>0.81469999999999998</v>
       </c>
       <c r="C25" s="1">
-        <v>0.76259999999999994</v>
+        <v>0.80089999999999995</v>
       </c>
       <c r="D25" s="1">
-        <v>0.96870000000000001</v>
+        <v>1.0665</v>
       </c>
       <c r="E25" s="1">
-        <v>0.94340000000000002</v>
+        <v>1.0425</v>
       </c>
       <c r="F25" s="1">
-        <v>0.98419999999999996</v>
+        <v>1.0327</v>
       </c>
       <c r="G25" s="1">
-        <v>0.97130000000000005</v>
+        <v>1.0210999999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>0.36159999999999998</v>
+        <v>0.25059999999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>0.3679</v>
+        <v>0.34310000000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>3.1699999999999999E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="K25" s="1">
-        <v>3.49E-2</v>
+        <v>3.09E-2</v>
       </c>
       <c r="L25" s="1">
-        <v>0.90139999999999998</v>
+        <v>0.89559999999999995</v>
       </c>
       <c r="M25" s="1">
-        <v>0.90939999999999999</v>
+        <v>0.89180000000000004</v>
       </c>
       <c r="N25" s="2">
-        <v>3.0602000000000001E-2</v>
+        <v>2.4121E-2</v>
       </c>
       <c r="O25" s="2">
-        <v>3.3578999999999998E-2</v>
+        <v>2.9907E-2</v>
       </c>
       <c r="P25" s="1">
-        <v>0.26700000000000002</v>
+        <v>1.8661000000000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.20880000000000001</v>
+        <v>1.9016999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1">
-        <v>0.76990000000000003</v>
+        <v>0.77370000000000005</v>
       </c>
       <c r="C26" s="1">
-        <v>0.75439999999999996</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="D26" s="1">
-        <v>0.9637</v>
+        <v>0.97070000000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.92600000000000005</v>
+        <v>0.95420000000000005</v>
       </c>
       <c r="F26" s="1">
-        <v>0.98170000000000002</v>
+        <v>0.98529999999999995</v>
       </c>
       <c r="G26" s="1">
-        <v>0.96230000000000004</v>
+        <v>0.9768</v>
       </c>
       <c r="H26" s="1">
-        <v>0.3614</v>
+        <v>0.35920000000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>0.38159999999999999</v>
+        <v>0.35909999999999997</v>
       </c>
       <c r="J26" s="1">
-        <v>3.1899999999999998E-2</v>
+        <v>3.1600000000000003E-2</v>
       </c>
       <c r="K26" s="1">
-        <v>3.4799999999999998E-2</v>
+        <v>3.5200000000000002E-2</v>
       </c>
       <c r="L26" s="1">
-        <v>0.90149999999999997</v>
+        <v>0.90169999999999995</v>
       </c>
       <c r="M26" s="1">
-        <v>0.91100000000000003</v>
+        <v>0.90700000000000003</v>
       </c>
       <c r="N26" s="2">
-        <v>3.0768E-2</v>
+        <v>3.0550999999999998E-2</v>
       </c>
       <c r="O26" s="2">
-        <v>3.3550000000000003E-2</v>
+        <v>3.3843999999999999E-2</v>
       </c>
       <c r="P26" s="1">
-        <v>0.34110000000000001</v>
+        <v>0.18809999999999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.29970000000000002</v>
+        <v>0.21129999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
-        <v>0.77890000000000004</v>
+        <v>0.85580000000000001</v>
       </c>
       <c r="C27" s="1">
-        <v>0.76639999999999997</v>
+        <v>0.82320000000000004</v>
       </c>
       <c r="D27" s="1">
-        <v>0.98629999999999995</v>
+        <v>1.1664000000000001</v>
       </c>
       <c r="E27" s="1">
-        <v>0.95840000000000003</v>
+        <v>1.0878000000000001</v>
       </c>
       <c r="F27" s="1">
-        <v>0.99309999999999998</v>
+        <v>1.08</v>
       </c>
       <c r="G27" s="1">
-        <v>0.97899999999999998</v>
+        <v>1.0429999999999999</v>
       </c>
       <c r="H27" s="1">
-        <v>0.3518</v>
+        <v>7.9899999999999999E-2</v>
       </c>
       <c r="I27" s="1">
-        <v>0.35699999999999998</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="J27" s="1">
-        <v>3.1600000000000003E-2</v>
+        <v>3.0599999999999999E-2</v>
       </c>
       <c r="K27" s="1">
-        <v>3.8100000000000002E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="L27" s="1">
-        <v>0.89370000000000005</v>
+        <v>0.88690000000000002</v>
       </c>
       <c r="M27" s="1">
-        <v>0.89359999999999995</v>
+        <v>0.89459999999999995</v>
       </c>
       <c r="N27" s="2">
-        <v>3.0551999999999999E-2</v>
+        <v>2.9558999999999998E-2</v>
       </c>
       <c r="O27" s="2">
-        <v>3.6582999999999997E-2</v>
+        <v>3.4145000000000002E-2</v>
       </c>
       <c r="P27" s="1">
-        <v>0.223</v>
+        <v>0.32529999999999998</v>
       </c>
       <c r="Q27" s="1">
-        <v>0.1996</v>
+        <v>0.32600000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1">
-        <v>0.7722</v>
+        <v>0.77170000000000005</v>
       </c>
       <c r="C28" s="1">
-        <v>0.75370000000000004</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="D28" s="1">
-        <v>0.97189999999999999</v>
+        <v>0.97409999999999997</v>
       </c>
       <c r="E28" s="1">
-        <v>0.9294</v>
+        <v>0.94359999999999999</v>
       </c>
       <c r="F28" s="1">
-        <v>0.9859</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="G28" s="1">
-        <v>0.96409999999999996</v>
+        <v>0.97140000000000004</v>
       </c>
       <c r="H28" s="1">
-        <v>0.35709999999999997</v>
+        <v>0.35730000000000001</v>
       </c>
       <c r="I28" s="1">
-        <v>0.37909999999999999</v>
+        <v>0.37369999999999998</v>
       </c>
       <c r="J28" s="1">
-        <v>3.1899999999999998E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="K28" s="1">
-        <v>3.8100000000000002E-2</v>
+        <v>3.4799999999999998E-2</v>
       </c>
       <c r="L28" s="1">
-        <v>0.89319999999999999</v>
+        <v>0.9022</v>
       </c>
       <c r="M28" s="1">
-        <v>0.89429999999999998</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="N28" s="2">
-        <v>3.0769000000000001E-2</v>
+        <v>3.0904000000000001E-2</v>
       </c>
       <c r="O28" s="2">
-        <v>3.6583999999999998E-2</v>
+        <v>3.3535000000000002E-2</v>
       </c>
       <c r="P28" s="1">
-        <v>0.31419999999999998</v>
+        <v>0.12139999999999999</v>
       </c>
       <c r="Q28" s="1">
-        <v>0.30009999999999998</v>
+        <v>0.14810000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.77090000000000003</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0.76119999999999999</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.96179999999999999</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.93640000000000001</v>
-      </c>
-      <c r="F29" s="1">
-        <v>0.98070000000000002</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.9677</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.36859999999999998</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.37369999999999998</v>
-      </c>
-      <c r="J29" s="1">
-        <v>2.7400000000000001E-2</v>
-      </c>
-      <c r="K29" s="1">
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0.91049999999999998</v>
-      </c>
-      <c r="M29" s="1">
-        <v>0.91879999999999995</v>
-      </c>
-      <c r="N29" s="2">
-        <v>2.6578999999999998E-2</v>
-      </c>
-      <c r="O29" s="2">
-        <v>2.9687000000000002E-2</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.31159999999999999</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>0.4229</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.77480000000000004</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.76549999999999996</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.95269999999999999</v>
-      </c>
-      <c r="F30" s="1">
-        <v>0.9889</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.97609999999999997</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.35310000000000002</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.37009999999999998</v>
-      </c>
-      <c r="J30" s="1">
-        <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="K30" s="1">
-        <v>3.1099999999999999E-2</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0.91369999999999996</v>
-      </c>
-      <c r="N30" s="2">
-        <v>2.6053E-2</v>
-      </c>
-      <c r="O30" s="2">
-        <v>3.0034999999999999E-2</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0.32450000000000001</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0.38019999999999998</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.77329999999999999</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0.75819999999999999</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.97540000000000004</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.93759999999999999</v>
-      </c>
-      <c r="F31" s="1">
-        <v>0.98760000000000003</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0.96830000000000005</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.37530000000000002</v>
-      </c>
-      <c r="J31" s="1">
-        <v>2.7099999999999999E-2</v>
-      </c>
-      <c r="K31" s="1">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0.90669999999999995</v>
-      </c>
-      <c r="M31" s="1">
-        <v>0.91379999999999995</v>
-      </c>
-      <c r="N31" s="2">
-        <v>2.6282E-2</v>
-      </c>
-      <c r="O31" s="2">
-        <v>3.0283999999999998E-2</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0.27339999999999998</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>0.33850000000000002</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1">
-        <v>0.77659999999999996</v>
+        <v>0.83909999999999996</v>
       </c>
       <c r="C32" s="1">
-        <v>0.76070000000000004</v>
+        <v>0.83809999999999996</v>
       </c>
       <c r="D32" s="1">
-        <v>0.98680000000000001</v>
+        <v>1.1229</v>
       </c>
       <c r="E32" s="1">
-        <v>0.94650000000000001</v>
+        <v>1.1409</v>
       </c>
       <c r="F32" s="1">
-        <v>0.99339999999999995</v>
+        <v>1.0597000000000001</v>
       </c>
       <c r="G32" s="1">
-        <v>0.97289999999999999</v>
+        <v>1.0681</v>
       </c>
       <c r="H32" s="1">
-        <v>0.34200000000000003</v>
+        <v>0.1245</v>
       </c>
       <c r="I32" s="1">
-        <v>0.37380000000000002</v>
+        <v>0.3155</v>
       </c>
       <c r="J32" s="1">
-        <v>2.7099999999999999E-2</v>
+        <v>2.46E-2</v>
       </c>
       <c r="K32" s="1">
-        <v>3.1399999999999997E-2</v>
+        <v>3.04E-2</v>
       </c>
       <c r="L32" s="1">
-        <v>0.90400000000000003</v>
+        <v>0.88549999999999995</v>
       </c>
       <c r="M32" s="1">
-        <v>0.90969999999999995</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="N32" s="2">
-        <v>2.6301000000000001E-2</v>
+        <v>2.3893000000000001E-2</v>
       </c>
       <c r="O32" s="2">
-        <v>3.0321000000000001E-2</v>
+        <v>2.9443E-2</v>
       </c>
       <c r="P32" s="1">
-        <v>0.2213</v>
+        <v>0.14330000000000001</v>
       </c>
       <c r="Q32" s="1">
-        <v>0.2802</v>
+        <v>0.17469999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1">
-        <v>0.78149999999999997</v>
+        <v>0.83089999999999997</v>
       </c>
       <c r="C33" s="1">
-        <v>0.76149999999999995</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="D33" s="1">
-        <v>1.002</v>
+        <v>1.1067</v>
       </c>
       <c r="E33" s="1">
-        <v>0.95399999999999996</v>
+        <v>1.1144000000000001</v>
       </c>
       <c r="F33" s="1">
-        <v>1.0009999999999999</v>
+        <v>1.052</v>
       </c>
       <c r="G33" s="1">
-        <v>0.97670000000000001</v>
+        <v>1.0557000000000001</v>
       </c>
       <c r="H33" s="1">
-        <v>0.32969999999999999</v>
+        <v>0.16789999999999999</v>
       </c>
       <c r="I33" s="1">
-        <v>0.37240000000000001</v>
+        <v>0.31619999999999998</v>
       </c>
       <c r="J33" s="1">
-        <v>2.7099999999999999E-2</v>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="K33" s="1">
-        <v>3.1199999999999999E-2</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="L33" s="1">
-        <v>0.90039999999999998</v>
+        <v>0.87960000000000005</v>
       </c>
       <c r="M33" s="1">
-        <v>0.90700000000000003</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="N33" s="2">
-        <v>2.6318999999999999E-2</v>
+        <v>2.8001000000000002E-2</v>
       </c>
       <c r="O33" s="2">
-        <v>3.0172999999999998E-2</v>
+        <v>3.3182999999999997E-2</v>
       </c>
       <c r="P33" s="1">
-        <v>0.20649999999999999</v>
+        <v>0.17380000000000001</v>
       </c>
       <c r="Q33" s="1">
-        <v>0.2913</v>
+        <v>0.22109999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B34" s="1">
-        <v>0.77449999999999997</v>
+        <v>0.77210000000000001</v>
       </c>
       <c r="C34" s="1">
-        <v>0.75570000000000004</v>
+        <v>0.7581</v>
       </c>
       <c r="D34" s="1">
-        <v>0.97840000000000005</v>
+        <v>0.96989999999999998</v>
       </c>
       <c r="E34" s="1">
-        <v>0.93440000000000001</v>
+        <v>0.9355</v>
       </c>
       <c r="F34" s="1">
-        <v>0.98919999999999997</v>
+        <v>0.98480000000000001</v>
       </c>
       <c r="G34" s="1">
-        <v>0.96660000000000001</v>
+        <v>0.96719999999999995</v>
       </c>
       <c r="H34" s="1">
-        <v>0.34260000000000002</v>
+        <v>0.35210000000000002</v>
       </c>
       <c r="I34" s="1">
-        <v>0.37769999999999998</v>
+        <v>0.37409999999999999</v>
       </c>
       <c r="J34" s="1">
-        <v>2.7099999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="K34" s="1">
         <v>3.1199999999999999E-2</v>
       </c>
       <c r="L34" s="1">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.9163</v>
+      </c>
+      <c r="N34" s="2">
+        <v>2.6189E-2</v>
+      </c>
+      <c r="O34" s="2">
+        <v>3.0214000000000001E-2</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.77139999999999997</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.75880000000000003</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.98409999999999997</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.37319999999999998</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K35" s="1">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.91469999999999996</v>
+      </c>
+      <c r="N35" s="2">
+        <v>2.622E-2</v>
+      </c>
+      <c r="O35" s="2">
+        <v>3.0327E-2</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.17829999999999999</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.2271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.78139999999999998</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.98809999999999998</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.31030000000000002</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="K36" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.91020000000000001</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="N36" s="2">
+        <v>2.8979999999999999E-2</v>
+      </c>
+      <c r="O36" s="2">
+        <v>3.6505000000000003E-2</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0.1789</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0.23019999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.77290000000000003</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.76259999999999994</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.94340000000000002</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.98419999999999996</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0.36159999999999998</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.3679</v>
+      </c>
+      <c r="J37" s="1">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="K37" s="1">
+        <v>3.49E-2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.90139999999999998</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="N37" s="2">
+        <v>3.0602000000000001E-2</v>
+      </c>
+      <c r="O37" s="2">
+        <v>3.3578999999999998E-2</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.20880000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.76990000000000003</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.9637</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.96230000000000004</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.3614</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.38159999999999999</v>
+      </c>
+      <c r="J38" s="1">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.90149999999999997</v>
+      </c>
+      <c r="M38" s="1">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="N38" s="2">
+        <v>3.0768E-2</v>
+      </c>
+      <c r="O38" s="2">
+        <v>3.3550000000000003E-2</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.34110000000000001</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0.29970000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.77890000000000004</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.76639999999999997</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.98629999999999995</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.95840000000000003</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.99309999999999998</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.3518</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="K41" s="1">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="N41" s="2">
+        <v>3.0551999999999999E-2</v>
+      </c>
+      <c r="O41" s="2">
+        <v>3.6582999999999997E-2</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.223</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0.1996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.7722</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.75370000000000004</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.9294</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.9859</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.96409999999999996</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.37909999999999999</v>
+      </c>
+      <c r="J42" s="1">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="K42" s="1">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.89319999999999999</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="N42" s="2">
+        <v>3.0769000000000001E-2</v>
+      </c>
+      <c r="O42" s="2">
+        <v>3.6583999999999998E-2</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0.31419999999999998</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0.30009999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.77090000000000003</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.76119999999999999</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.98070000000000002</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.9677</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.36859999999999998</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.37369999999999998</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0.91879999999999995</v>
+      </c>
+      <c r="N43" s="2">
+        <v>2.6578999999999998E-2</v>
+      </c>
+      <c r="O43" s="2">
+        <v>2.9687000000000002E-2</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0.4229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.77480000000000004</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.76549999999999996</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.95269999999999999</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.9889</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.97609999999999997</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.37009999999999998</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="K44" s="1">
+        <v>3.1099999999999999E-2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0.91369999999999996</v>
+      </c>
+      <c r="N44" s="2">
+        <v>2.6053E-2</v>
+      </c>
+      <c r="O44" s="2">
+        <v>3.0034999999999999E-2</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0.38019999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.77329999999999999</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.75819999999999999</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.97540000000000004</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.96830000000000005</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.37530000000000002</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="K45" s="1">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="N45" s="2">
+        <v>2.6282E-2</v>
+      </c>
+      <c r="O45" s="2">
+        <v>3.0283999999999998E-2</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0.33850000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.77659999999999996</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.76070000000000004</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.99339999999999995</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.37380000000000002</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.90969999999999995</v>
+      </c>
+      <c r="N46" s="2">
+        <v>2.6301000000000001E-2</v>
+      </c>
+      <c r="O46" s="2">
+        <v>3.0321000000000001E-2</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0.2213</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0.2802</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.78149999999999997</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.76149999999999995</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1.002</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0.32969999999999999</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.37240000000000001</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="N47" s="2">
+        <v>2.6318999999999999E-2</v>
+      </c>
+      <c r="O47" s="2">
+        <v>3.0172999999999998E-2</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0.2913</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.75570000000000004</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.93440000000000001</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.96660000000000001</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0.34260000000000002</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0.37769999999999998</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="K48" s="1">
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="L48" s="1">
         <v>0.90500000000000003</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M48" s="1">
         <v>0.91369999999999996</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N48" s="2">
         <v>2.6322999999999999E-2</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O48" s="2">
         <v>3.0190999999999999E-2</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P48" s="1">
         <v>0.15720000000000001</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q48" s="1">
         <v>0.25219999999999998</v>
       </c>
     </row>

--- a/2_design/asim/artifacts/testing/analyze-user-item-compare.xlsx
+++ b/2_design/asim/artifacts/testing/analyze-user-item-compare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GoogleDrive\todo\working\projects\sim\2_design\asim\artifacts\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958CBF99-0427-4392-A2CF-3F8CF347C3AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6178262C-0D49-4A7B-B9D9-50A399C60BF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8DB95D20-6883-4AA3-B7D2-5A0EAC39C354}"/>
   </bookViews>
@@ -601,7 +601,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -949,21 +949,37 @@
       <c r="A8" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>0.78380000000000005</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>0.99409999999999998</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1">
+        <v>0.997</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>0.33850000000000002</v>
+      </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1">
+        <v>3.15E-2</v>
+      </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1">
+        <v>0.8972</v>
+      </c>
       <c r="M8" s="1"/>
-      <c r="N8" s="2"/>
+      <c r="N8" s="2">
+        <v>3.0411000000000001E-2</v>
+      </c>
       <c r="O8" s="2"/>
-      <c r="P8" s="1"/>
+      <c r="P8" s="1">
+        <v>0.23669999999999999</v>
+      </c>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1203,21 +1219,37 @@
       <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>0.81320000000000003</v>
+      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1">
+        <v>1.0622</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>1.0306</v>
+      </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>0.2109</v>
+      </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1">
+        <v>2.9100000000000001E-2</v>
+      </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="1">
+        <v>0.90429999999999999</v>
+      </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2">
+        <v>2.8192999999999999E-2</v>
+      </c>
       <c r="O14" s="2"/>
-      <c r="P14" s="1"/>
+      <c r="P14" s="1">
+        <v>0.2641</v>
+      </c>
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1277,21 +1309,37 @@
       <c r="A16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1">
+        <v>0.78469999999999995</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1">
+        <v>0.99509999999999998</v>
+      </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>0.99760000000000004</v>
+      </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>0.23250000000000001</v>
+      </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="1">
+        <v>2.24E-2</v>
+      </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="1">
+        <v>0.45300000000000001</v>
+      </c>
       <c r="M16" s="1"/>
-      <c r="N16" s="2"/>
+      <c r="N16" s="2">
+        <v>2.1333999999999999E-2</v>
+      </c>
       <c r="O16" s="2"/>
-      <c r="P16" s="1"/>
+      <c r="P16" s="1">
+        <v>0.23849999999999999</v>
+      </c>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1504,21 +1552,37 @@
       <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>0.77149999999999996</v>
+      </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="1">
+        <v>0.97319999999999995</v>
+      </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>0.98650000000000004</v>
+      </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>0.35320000000000001</v>
+      </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="L21" s="1">
+        <v>0.89980000000000004</v>
+      </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="2"/>
+      <c r="N21" s="2">
+        <v>3.0890999999999998E-2</v>
+      </c>
       <c r="O21" s="2"/>
-      <c r="P21" s="1"/>
+      <c r="P21" s="1">
+        <v>0.23710000000000001</v>
+      </c>
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -1546,21 +1610,37 @@
       <c r="A23" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>0.77149999999999996</v>
+      </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>0.9738</v>
+      </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1">
+        <v>0.98680000000000001</v>
+      </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>0.35659999999999997</v>
+      </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1">
+        <v>3.1800000000000002E-2</v>
+      </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="L23" s="1">
+        <v>0.89900000000000002</v>
+      </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="2"/>
+      <c r="N23" s="2">
+        <v>3.0755000000000001E-2</v>
+      </c>
       <c r="O23" s="2"/>
-      <c r="P23" s="1"/>
+      <c r="P23" s="1">
+        <v>0.30680000000000002</v>
+      </c>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -2287,21 +2367,37 @@
       <c r="A40" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1">
+        <v>0.78249999999999997</v>
+      </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="1">
+        <v>0.9909</v>
+      </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1">
+        <v>0.99550000000000005</v>
+      </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1">
+        <v>0.3422</v>
+      </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="1">
+        <v>3.1600000000000003E-2</v>
+      </c>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="L40" s="1">
+        <v>0.89710000000000001</v>
+      </c>
       <c r="M40" s="1"/>
-      <c r="N40" s="2"/>
+      <c r="N40" s="2">
+        <v>3.0483E-2</v>
+      </c>
       <c r="O40" s="2"/>
-      <c r="P40" s="1"/>
+      <c r="P40" s="1">
+        <v>0.34489999999999998</v>
+      </c>
       <c r="Q40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
